--- a/biology/Biologie cellulaire et moléculaire/Anaplasma/Anaplasma.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Anaplasma/Anaplasma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anaplasma est un genre de bactéries rickettsiales. Elles se trouvent dans les plaquettes sanguines et provoquent des  anaplasmoses. La maladie se rencontre principalement dans les zones tropicales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anaplasma est un genre de bactéries rickettsiales. Elles se trouvent dans les plaquettes sanguines et provoquent des  anaplasmoses. La maladie se rencontre principalement dans les zones tropicales.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Bactéries intracellulaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Anaplasmas ont besoin d'un hôte intermédiaire, une tique, (eg. Dermacentor) pour parvenir à maturité et des mouches comme vecteurs de transmission[1].
-Une des principales conséquences de l'infection des plaquettes par anaplasmes  est une anémie hémolytique, due aux dommages subis par les cellules sanguines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Anaplasmas ont besoin d'un hôte intermédiaire, une tique, (eg. Dermacentor) pour parvenir à maturité et des mouches comme vecteurs de transmission.
+Une des principales conséquences de l'infection des plaquettes par anaplasmes  est une anémie hémolytique, due aux dommages subis par les cellules sanguines.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces suivantes présentent un intérêt pour le vétérinaire :
 Anaplasma marginale et Anaplasma centrale pour le bêtail ;
-Anaplasma mesaeterum et Anaplasma ovis pour les moutons et les chèvres[1] ;
+Anaplasma mesaeterum et Anaplasma ovis pour les moutons et les chèvres ;
 Anaplasma phagocytophilum pour les chiens, les chats et les chevaux (voir Human granulocytic anaplasmosis).
-L'espèce Anaplasma sparouinense est responsable d'une zoonose rare, l’anaplasmose de Sparouine, connue uniquement en Guyane[2],[3]. Cette maladie a été découverte à la suite de l’infection d’un orpailleur vivant au cœur de la forêt tropicale humide. L’infection de ses globules rouges par Anaplasma sparouinense a entraîné une dégradation sévère de son état de santé et a nécessité son hospitalisation[3]. Des souches d'Anaplasma génétiquement proches circulent parmi les tiques et des mammifères d’Amérique du Sud qui pourraient constituer les réservoirs naturels de l’infection[3].
+L'espèce Anaplasma sparouinense est responsable d'une zoonose rare, l’anaplasmose de Sparouine, connue uniquement en Guyane,. Cette maladie a été découverte à la suite de l’infection d’un orpailleur vivant au cœur de la forêt tropicale humide. L’infection de ses globules rouges par Anaplasma sparouinense a entraîné une dégradation sévère de son état de santé et a nécessité son hospitalisation. Des souches d'Anaplasma génétiquement proches circulent parmi les tiques et des mammifères d’Amérique du Sud qui pourraient constituer les réservoirs naturels de l’infection.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Génomes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les génomes d'au moins trois espèces différentes d'Anaplasmes ont été séquencés[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les génomes d'au moins trois espèces différentes d'Anaplasmes ont été séquencés.
 Ces génomes sont d'environ 1.1 à 1.2 MB en taille et encodent de 925 à 1 335 protéines.
 </t>
         </is>
